--- a/ExcelTables/Matrices para MML.xlsx
+++ b/ExcelTables/Matrices para MML.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanb\OneDrive\Documentos\GitHub\GerenciaProyectos\ExcelTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742C7C99-87EB-4652-8DA3-04EAB0D45A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A055492-0DA5-4A18-AEEC-F942DE039011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicadores y metas inter" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="145">
   <si>
     <t>NIVEL</t>
   </si>
@@ -87,42 +87,6 @@
   </si>
   <si>
     <t>MES 12</t>
-  </si>
-  <si>
-    <t>MES 13</t>
-  </si>
-  <si>
-    <t>MES 14</t>
-  </si>
-  <si>
-    <t>MES 15</t>
-  </si>
-  <si>
-    <t>MES 16</t>
-  </si>
-  <si>
-    <t>MES 17</t>
-  </si>
-  <si>
-    <t>MES 18</t>
-  </si>
-  <si>
-    <t>MES 19</t>
-  </si>
-  <si>
-    <t>MES 20</t>
-  </si>
-  <si>
-    <t>MES 21</t>
-  </si>
-  <si>
-    <t>MES 22</t>
-  </si>
-  <si>
-    <t>MES 23</t>
-  </si>
-  <si>
-    <t>MES 24</t>
   </si>
   <si>
     <t>FIN</t>
@@ -245,378 +209,349 @@
     <t>Responsable</t>
   </si>
   <si>
+    <t>P.1. Proponer y Desarrollar un Modelo de Desarrollo, coherente con los intereses de las comunidades que habitan la cuenca alta del Río San Juan.</t>
+  </si>
+  <si>
+    <t>Cuantitativo</t>
+  </si>
+  <si>
+    <t>SUPUESTOS</t>
+  </si>
+  <si>
+    <t>FACTORES DE RIESGO</t>
+  </si>
+  <si>
+    <t>FINANCIERO</t>
+  </si>
+  <si>
+    <t>POLÍTICO</t>
+  </si>
+  <si>
+    <t>SOCIAL</t>
+  </si>
+  <si>
+    <t>AMBIENTAL</t>
+  </si>
+  <si>
+    <t>LEGAL</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>INDICADORES</t>
+  </si>
+  <si>
+    <t>MEDIOS DE VERIFICACIÓN</t>
+  </si>
+  <si>
+    <t>Unidad de medida: Porcentaje</t>
+  </si>
+  <si>
+    <t>Reducir a 5 minutos por trámite o menos</t>
+  </si>
+  <si>
+    <t>Unidad de medida: minutos/trámite</t>
+  </si>
+  <si>
+    <t>Incremento del 0,05% en el PIB local.</t>
+  </si>
+  <si>
+    <t>Aumento del PIB local</t>
+  </si>
+  <si>
+    <t>Las condiciones económicas y productivas del territorio se mantienen estables y favorecen la inversión local.</t>
+  </si>
+  <si>
+    <t>Trámites para licencias ágiles</t>
+  </si>
+  <si>
+    <t>Los procesos automatizados son adoptados por las entidades responsables y utilizados por los ciudadanos sin interrupciones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Unidad de medida: Porcentaje</t>
+  </si>
+  <si>
+    <t>Los módulos desarrollados funcionan correctamente y se integran sin errores en el sistema.</t>
+  </si>
+  <si>
+    <t>Los equipos instalados operan de manera continua y cumplen con las especificaciones técnicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Unidad de medida: Porcentaje</t>
+  </si>
+  <si>
+    <t>El personal aplica los conocimientos adquiridos en el uso de los sistemas automatizados.</t>
+  </si>
+  <si>
+    <t>Se disponen oportunamente los recursos financieros, humanos y materiales necesarios para ejecutar las actividades planificadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Unidad de medida: minutos/trámites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Unidad de medida: Dias hábiles (minutos/trámites)</t>
+  </si>
+  <si>
+    <t>Las entidades de tránsito garantizan la compatibilidad y operabilidad con los sistemas desarrollados.</t>
+  </si>
+  <si>
+    <t>Los proveedores tecnológicos entregan los equipos operando de una correcta manera en los plazos establecidos.</t>
+  </si>
+  <si>
+    <t>El personal institucional aplica los conocimientos adquiridos en el uso de los sistemas automatizados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F.1. Aumenta el PIB local </t>
+  </si>
+  <si>
+    <t>https://www.dane.gov.co/index.php/estadisticas-por-tema/cuentas-nacionales/cuentas-nacionales-departamentales</t>
+  </si>
+  <si>
+    <t>P.1. Trámites para licencias ágiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.pereira.gov.co/publicaciones/6912/un-total-de-21570-licencias-de-conduccion-fueron-tramitadas-en-el-instituto-de-movilidad-de-pereira/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documento de especificación de requisitos. </t>
+  </si>
+  <si>
+    <t>Actas de recepción de la instalación del hardware e inventario Físico de activos.</t>
+  </si>
+  <si>
+    <t>Listas de asistencia y evaluaciones de conocimiento de las sesiones de capacitación. Certificados de aprobación emitidos por la entidad capacitadora.</t>
+  </si>
+  <si>
+    <t>A.1.1. Desarrollar Sw para …</t>
+  </si>
+  <si>
+    <t>Acta de entrega del proyecto</t>
+  </si>
+  <si>
+    <t>Se disponen oportunamente los recursos financieros, humanos y materiales necesarios para ejecutar las actividades planificadas.yecto.</t>
+  </si>
+  <si>
+    <t>Acta de levantamiento de requerimientos.</t>
+  </si>
+  <si>
+    <t>Informe de entrevistas</t>
+  </si>
+  <si>
+    <t>Acta de elaboración de diagramas.</t>
+  </si>
+  <si>
+    <t>Acta de elaboración de historias de
+usuario</t>
+  </si>
+  <si>
+    <t>Contrato de licenciamietno</t>
+  </si>
+  <si>
+    <t>Pruebas de QA</t>
+  </si>
+  <si>
+    <t>Manuales técnicos, sitio de
+información oficial y capacitación
+presencial</t>
+  </si>
+  <si>
+    <t>Bases de datos de empleados</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Contratos de servicios</t>
+  </si>
+  <si>
+    <t>Legislación nacional y regional</t>
+  </si>
+  <si>
+    <t>Recursos del equipo de trabajo</t>
+  </si>
+  <si>
+    <t>Contrato arrendamiento</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t xml:space="preserve">F.1. </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>Mejorar las condiciones de vida</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> de los habitantes de la región del Chocó Biogeográfico, cuenca Alta de Río San Juan, conformado por las comunidades Afrodescendientes, Indígenas (Emberá y Katios) y colonos.</t>
     </r>
   </si>
   <si>
-    <t>P.1. Proponer y Desarrollar un Modelo de Desarrollo, coherente con los intereses de las comunidades que habitan la cuenca alta del Río San Juan.</t>
-  </si>
-  <si>
-    <t>C.1. Plataformas tecnológicas que incluyen el lenguaje de señas en su interacción con los usuarios</t>
-  </si>
-  <si>
-    <t>Porcentaje de disponibilidad en aplicaciones.
-Número de app con lenguaje de señas/# de app consultadas *100</t>
-  </si>
-  <si>
-    <t>Plataformas consultadas</t>
-  </si>
-  <si>
-    <t>Verificación física de funcionamiento</t>
-  </si>
-  <si>
-    <t>Cuantitativo</t>
-  </si>
-  <si>
-    <t>Semestral</t>
-  </si>
-  <si>
-    <t>Dllador Front end</t>
-  </si>
-  <si>
-    <t>C.2. Procesos e instrumentos de planificaciones, ordenación y uso del territorio, articulados</t>
-  </si>
-  <si>
-    <t>C.3. Políticas públicas locales y regionales formuladas con las comunidades.</t>
-  </si>
-  <si>
-    <t>C.4. Políticas nacionales que reconocen modelos diferentes a la economía de mercado.</t>
-  </si>
-  <si>
-    <t>C.5. Estructura Política Definida.</t>
-  </si>
-  <si>
-    <t>C.6. Organizaciones Sociales con objetivos comunes de desarrollo.</t>
-  </si>
-  <si>
-    <t>C.7. Actores sociales e institucionales articulados.</t>
-  </si>
-  <si>
-    <t>C.8. Patentes genéticas reconocidas.</t>
-  </si>
-  <si>
-    <t>C.9. Desarrollo de Recursos Definidos.</t>
-  </si>
-  <si>
-    <t>C.10. Conciencia Ambiental, institucional  del embera y del Afro, lograda.</t>
-  </si>
-  <si>
-    <t>C.11. Saberes propios conservados.</t>
-  </si>
-  <si>
-    <t>A.1.1. Aporte del Estado para el desarrollo de proyectos detonantes.</t>
-  </si>
-  <si>
-    <t>A.2.1. Revisión, análisis y síntesis de elementos comunes en los instrumentos de planificación.</t>
-  </si>
-  <si>
-    <t>A.3.1. Diseño y puesta en marcha de una estrategia de comunicación permanente.</t>
-  </si>
-  <si>
-    <t>A.3.2. Capacitación a las comunidades en espacios de participación.</t>
-  </si>
-  <si>
-    <t>A.3.3. Capacitación en la asociatividad, liderazgo y administración.</t>
-  </si>
-  <si>
-    <t>A.3.4. Formulación de Política Pública que adopte los instrumentos de un Modelo de Desarrollo.</t>
-  </si>
-  <si>
-    <t>A.3.5. Conformación de comité de Juventudes.</t>
-  </si>
-  <si>
-    <t>A.3.6. Formalización de organizaciones (representación legal, etc.).</t>
-  </si>
-  <si>
-    <t>A.3.7. Capacitación sobre gobernabilidad Étnica (a comunidad e institución).</t>
-  </si>
-  <si>
-    <t>A.4.1. Inclusión de los planes de vida en el PDD.</t>
-  </si>
-  <si>
-    <t>A.4.2. Desarrollo e implementación de los planes de vida en el PDD.</t>
-  </si>
-  <si>
-    <t>A.4.3. Socialización y compromiso de los alcaldes con el Plan de Vida de las comunidades involucradas.</t>
-  </si>
-  <si>
-    <t>A.4.4. Análisis de conflicto de la impertinencia de las políticas públicas aplicadas en la región.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.5.1. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.6.1. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.7.1. </t>
-  </si>
-  <si>
-    <t>A.8.1. Definición de los aspectos de Propiedad Intelectual del conocimiento tradicional.</t>
-  </si>
-  <si>
-    <t>A.8.2. Presentación de patentes (incluido el proceso de I+D).</t>
-  </si>
-  <si>
-    <t>A.9.1. Definición de foco (FAC, Turismo con deporte extremo, otro).</t>
-  </si>
-  <si>
-    <t>A.10.1. Campaña de concientización en derechos, deberes y conservación.</t>
-  </si>
-  <si>
-    <t>A.10.2. Réplica del proyecto Afro "Tierra de niños".</t>
-  </si>
-  <si>
-    <t>A.11.1. Síntesis documentada de las lecciones aprendidas con relación a  la ausencia del modelo de desarrollo.</t>
-  </si>
-  <si>
-    <t>A.11.2. Sistematización del conocimiento tradicional (Programa Investigación para la identificación y valoración del conocimiento tradicional, aplicando protocolo existente).</t>
-  </si>
-  <si>
-    <t>A.11.3. Impulso del conocimiento tradicional (Participación colectiva en la sistematización del conocimiento de los sabios de la región, "La selva como farmacia" -Afros-, apropiación social).</t>
-  </si>
-  <si>
-    <t>A.11.4. Validación e intercambio de saberes sobre conocimiento tradicional (médico, agrícola, ..).</t>
-  </si>
-  <si>
-    <t>SUPUESTOS</t>
-  </si>
-  <si>
-    <t>FACTORES DE RIESGO</t>
-  </si>
-  <si>
-    <t>FINANCIERO</t>
-  </si>
-  <si>
-    <t>POLÍTICO</t>
-  </si>
-  <si>
-    <t>SOCIAL</t>
-  </si>
-  <si>
-    <t>AMBIENTAL</t>
-  </si>
-  <si>
-    <t>LEGAL</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>INDICADORES</t>
-  </si>
-  <si>
-    <t>MEDIOS DE VERIFICACIÓN</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">F.1. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Mejorar las condiciones de vida</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> de los habitantes de la región del Chocó Biogeográfico, cuenca Alta de Río San Juan, conformado por las comunidades Afrodescendientes, Indígenas (Emberá y Katios) y colonos.</t>
-    </r>
-  </si>
-  <si>
-    <t>F.1.1. Al finalizar el proyecto, se habrá disminuido el NBI en X puntos.</t>
-  </si>
-  <si>
-    <t>http://www.dane.gov.co/dane/</t>
-  </si>
-  <si>
-    <t>F.1.2. Al finalizar el proyecto del IDH de la región deberá haber crecido en X puntos.</t>
-  </si>
-  <si>
-    <t>PNUD</t>
-  </si>
-  <si>
-    <t>F.1.3. Al finalizar el proyecto, X familias habrán salido de la pobreza extrema.</t>
-  </si>
-  <si>
-    <t>P.1.1 Al finalizar el proyecto se tendrá planteado y en ejecución un Modelo de Desarrollo construido por las comunidades Afrodescendietnes que habitan la cuenca alta del Río San Juan.</t>
-  </si>
-  <si>
-    <t>Gerente del proyecto y comunidades</t>
-  </si>
-  <si>
-    <t>Los gobiernos nacionales y locales apoyan de manera incondicional el proceso.</t>
-  </si>
-  <si>
-    <t>P.1.2. Al finalizar el proyecto se tendrá en ejecución un Modelo de Desarrollo con Estrategia, Estructura y Foco definidos y en funcionamiento para las comunidades Indígenas</t>
-  </si>
-  <si>
-    <t>PIB regional registrado las alcaldías y gobernaciones</t>
-  </si>
-  <si>
-    <t>C.1. Se definen las políticas de apoyo a los sectores productivos (subvención).</t>
-  </si>
-  <si>
-    <t>C.1.1. Al finalizar el proyecto se contarán con políticas establecidas para el apoyo a los sectores productivas.</t>
-  </si>
-  <si>
-    <t>1. La comunidad afrodescendiente participa y apoya, con todas sus organizaciones sociales.
-2. La comunidad Indígena con todos sus consejos y  cabildos participa de manera activa y apoya el proceso.</t>
-  </si>
-  <si>
-    <t>C.2.1. Al finalizar el proyecto se contará con todos los instrumento de planificación, ordenación y uso del territorio, articulados.</t>
-  </si>
-  <si>
-    <t>C.3.1. Al finalizar el proyecto se contará con políticas públicas locales y regionales, formuladas con y por las comunidades.</t>
-  </si>
-  <si>
-    <t>C.4.1. Al finalizar el proyecto se contará con políticas nacionales que reconozcan  las condiciones locales.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C.5.1. </t>
-  </si>
-  <si>
-    <t>C.6.1. Al finalizar el proyecto se contará con el 90% de las  organizaciones sociales locales con planes y actividades articuladas al plan de desarrollo.</t>
-  </si>
-  <si>
-    <t>C.7.1. Al finalizar el proyecto se contará con el 90% de las formas organizativas sociales (JAC,JAL,ONG, Asociaciones y  otras) articulados con las alcaldías, entes estatales y organziaciones de su mismo nivel.</t>
-  </si>
-  <si>
-    <t>C.8.1. Al finalizar el proyecto se contará con x patentes genéticas reconocidas.</t>
-  </si>
-  <si>
-    <t>El Estado apuesta a la construcción del Modelo de Desarrollo y destina recursos suficientes para la implementación integral, no por partes,  del proyecto.</t>
-  </si>
-  <si>
-    <t>Documento con Estrategia de comunicación planteado.</t>
-  </si>
-  <si>
-    <t>Documento entregado por el Gerente del Proyecto</t>
-  </si>
-  <si>
-    <t>Equipo de Comunicaciones conformado con todos los contratos legalizados.</t>
-  </si>
-  <si>
-    <t>Funcionarios con Contratos legalizados</t>
-  </si>
-  <si>
-    <t>Número de pautas en medios Internacionales</t>
-  </si>
-  <si>
-    <t>Canales Internacionales</t>
-  </si>
-  <si>
-    <t>Portal Web Diseñado y funcionando al 100%.</t>
-  </si>
-  <si>
-    <t>Dirección URL</t>
-  </si>
-  <si>
-    <t>Número de pautas en medios Nacionales</t>
-  </si>
-  <si>
-    <t>Canales Nacionales</t>
-  </si>
-  <si>
-    <t>Número de pautas en medios locales</t>
-  </si>
-  <si>
-    <t>Medios Locales</t>
-  </si>
-  <si>
-    <t>Aumento de turistas como resultado de la estrategia de medios</t>
-  </si>
-  <si>
-    <t>Cotelco</t>
-  </si>
-  <si>
-    <t>Unidad de medida: Porcentaje</t>
-  </si>
-  <si>
-    <t>Reducir a 5 minutos por trámite o menos</t>
-  </si>
-  <si>
-    <t>Unidad de medida: minutos/trámite</t>
-  </si>
-  <si>
-    <t>Incremento del 0,05% en el PIB local.</t>
-  </si>
-  <si>
-    <t>Aumento del PIB local</t>
-  </si>
-  <si>
-    <t>Las condiciones económicas y productivas del territorio se mantienen estables y favorecen la inversión local.</t>
-  </si>
-  <si>
-    <t>Trámites para licencias ágiles</t>
-  </si>
-  <si>
-    <t>Los procesos automatizados son adoptados por las entidades responsables y utilizados por los ciudadanos sin interrupciones.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Unidad de medida: Porcentaje</t>
-  </si>
-  <si>
-    <t>Los módulos desarrollados funcionan correctamente y se integran sin errores en el sistema.</t>
-  </si>
-  <si>
-    <t>Los equipos instalados operan de manera continua y cumplen con las especificaciones técnicas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Unidad de medida: Porcentaje</t>
-  </si>
-  <si>
-    <t>El personal aplica los conocimientos adquiridos en el uso de los sistemas automatizados.</t>
-  </si>
-  <si>
-    <t>Se disponen oportunamente los recursos financieros, humanos y materiales necesarios para ejecutar las actividades planificadas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Unidad de medida: minutos/trámites</t>
+    <t>Consulta y extracción de datos de las bases internas del sistema, así como la revisión y recolección de reportes locales.</t>
+  </si>
+  <si>
+    <t>(Cuantitativo)  Análisis cuantitativo del crecimiento del PIB local a partir de la comparación de los registros económicos antes y después de la implementación del sistema.</t>
+  </si>
+  <si>
+    <t>Anual</t>
+  </si>
+  <si>
+    <t>Alcaldía Local</t>
+  </si>
+  <si>
+    <t>Consulta en las bases de datos del sistema, mediante reportes automáticos o consultas que miden el tiempo entre la radicación y la aprobación.</t>
+  </si>
+  <si>
+    <t>(Cuantitativo) Análisi cuantitativo del aumento de la cantidad de licencias procesadas mensualmente antes y después de la implementación del sistema</t>
+  </si>
+  <si>
+    <t>Mensual</t>
+  </si>
+  <si>
+    <t>Instituto de movilidad de Pereira</t>
+  </si>
+  <si>
+    <t>COMPONENTE</t>
+  </si>
+  <si>
+    <t>Revisión de funcionamiento del módulo.</t>
+  </si>
+  <si>
+    <t>(Cualitativo) Comparación de funcionalidades desarrolladas con respecto a la especificación de los requisitos.</t>
+  </si>
+  <si>
+    <t>Equipo de Desarrollo</t>
+  </si>
+  <si>
+    <t>Revisión documental de las actas de recepción y verificación física del inventario para confirmar ubicación y número de serie.</t>
+  </si>
+  <si>
+    <t>(Cuantitativo) Calculo del porcentaje de equipos instalados.</t>
+  </si>
+  <si>
+    <t>Revisión documental de las listas de asistencia y los registros de las calificaciones obtenidas en las pruebas finales.</t>
+  </si>
+  <si>
+    <t>(Cuantitativo) Calculo del porcentaje de asistencia y aprobación.</t>
+  </si>
+  <si>
+    <t>Trimestral</t>
+  </si>
+  <si>
+    <t>Talento Humano</t>
+  </si>
+  <si>
+    <t>Documento final</t>
+  </si>
+  <si>
+    <t>Cualitativo</t>
+  </si>
+  <si>
+    <t>Única</t>
+  </si>
+  <si>
+    <t>Equipo de trabajo</t>
+  </si>
+  <si>
+    <t>Planteamiento de requerimiento</t>
+  </si>
+  <si>
+    <t>Analistas</t>
+  </si>
+  <si>
+    <t>Revisión de la literatura de
+requerimientos.</t>
+  </si>
+  <si>
+    <t>Revisión de la literatura de
+diagramas</t>
+  </si>
+  <si>
+    <t>Revisión de las historias de
+usuario</t>
+  </si>
+  <si>
+    <t>Bimestral</t>
+  </si>
+  <si>
+    <t>Equipo de diseño</t>
+  </si>
+  <si>
+    <t>Informes de adquisión de
+herramientas de desarrollo</t>
+  </si>
+  <si>
+    <t>Desarrolladores</t>
+  </si>
+  <si>
+    <t>Resultados obtenidos en las
+pruebas de software</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Encuestas de satisfacción de los
+participantes, registros de
+asistencia y observaciones
+directa</t>
+  </si>
+  <si>
+    <t>Equipo de
+formación</t>
+  </si>
+  <si>
+    <t>Monitoreo mediante imágenes
+satelitales y visitas de campo.</t>
+  </si>
+  <si>
+    <t>Especialista en
+procesamiento de
+imágenes</t>
+  </si>
+  <si>
+    <t>Evaluaciones de competencias</t>
+  </si>
+  <si>
+    <t>Equipo de RH</t>
+  </si>
+  <si>
+    <t>Revisiones de cumplimiento de
+contratos</t>
+  </si>
+  <si>
+    <t>Lider del proyecto</t>
+  </si>
+  <si>
+    <t>Consultas con expertos legales</t>
+  </si>
+  <si>
+    <t>Consultores externos</t>
+  </si>
+  <si>
+    <t>Informe de gastos en recursos
+informáticos</t>
+  </si>
+  <si>
+    <t>Cantidad de equipos adquiridos</t>
+  </si>
+  <si>
+    <t>Revisión de documentos de
+arrendamiento</t>
   </si>
 </sst>
 </file>
@@ -629,7 +564,7 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -681,36 +616,9 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000D4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000D4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -744,6 +652,77 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="6.6"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -772,26 +751,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEAF1DD"/>
-        <bgColor rgb="FFEAF1DD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBD4B4"/>
-        <bgColor rgb="FFFBD4B4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFDDD9C3"/>
         <bgColor rgb="FFDDD9C3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6D9F0"/>
-        <bgColor rgb="FFC6D9F0"/>
       </patternFill>
     </fill>
     <fill>
@@ -818,8 +779,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="50">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -1114,218 +1093,11 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -1454,12 +1226,306 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1507,9 +1573,6 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1519,94 +1582,14 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1614,19 +1597,173 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1640,148 +1777,168 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="15" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="16" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{7192F114-D825-4EAA-A3A5-BBBDA39A781A}"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2042,23 +2199,485 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="image2.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB92A356-EFAC-1EE7-3899-210EE09CA747}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9105900" y="723900"/>
+          <a:ext cx="2914650" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="image4.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D13DC94A-C63D-F94B-1D8E-7C7A1EA7EC75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9105900" y="1657350"/>
+          <a:ext cx="2914650" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DBC2F68-16B3-B08F-67E6-558D8A2A9F2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9105900" y="723900"/>
+          <a:ext cx="2914650" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1029" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{068F9EDF-E704-2A2F-FE2A-09E117207AAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9105900" y="1657350"/>
+          <a:ext cx="2914650" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>438150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2914650" cy="552450"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="image5.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AEE88FD-2B15-4A68-A0FC-0432CD0293FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4343400" y="5305425"/>
+          <a:ext cx="2914650" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>609600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2981325</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1095375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="image2.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68AD63AC-5A1D-42E3-B5AB-45198CC32B45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4391025" y="1514475"/>
+          <a:ext cx="2914650" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2914650" cy="400050"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="image4.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED8D4500-36B9-481A-9E3E-DDE849046D8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4371975" y="2981325"/>
+          <a:ext cx="2914650" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2914650" cy="542925"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="image3.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F07368F7-D2B1-4B85-AD6C-D25EF805770B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="6257925"/>
+          <a:ext cx="2914650" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2914650" cy="323850"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DD6395A-83E4-46AF-8A6A-88B0BA8D5C3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4343400" y="7362825"/>
+          <a:ext cx="2914650" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
+      <xdr:colOff>65930</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>139479</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2587500</xdr:colOff>
+      <xdr:colOff>2554370</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>460455</xdr:rowOff>
+      <xdr:rowOff>584694</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2081,8 +2700,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5480685" y="739140"/>
-          <a:ext cx="2488440" cy="443973"/>
+          <a:off x="5441343" y="868349"/>
+          <a:ext cx="2488440" cy="445215"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2259,6 +2878,231 @@
         <a:xfrm>
           <a:off x="5375414" y="4721087"/>
           <a:ext cx="2633207" cy="439561"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>300098</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>814154</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2988767</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>236882</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagen 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5568DEC8-BDE0-4BB4-9043-3D4932108CC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6177023" y="1900004"/>
+          <a:ext cx="2688669" cy="480003"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>312741</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>278467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3085847</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>795130</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98411D4A-6122-4AE3-B8ED-408883D3D57D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6399216" y="2497792"/>
+          <a:ext cx="2773106" cy="516663"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>308113</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>412058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3070925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>966993</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagen 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B1EFF85-BCFB-48AD-A60E-35110CD82F35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7080388" y="7517708"/>
+          <a:ext cx="2762812" cy="554935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>110987</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>300659</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3097635</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>781050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagen 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71BD7456-9EEE-4EA5-A7D0-FA15E996D21D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6883262" y="6072809"/>
+          <a:ext cx="2986648" cy="480391"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>344557</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3034182</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>824948</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagen 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D85E297-73F8-46C1-A796-E075972CC0E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6924675" y="4811782"/>
+          <a:ext cx="2881782" cy="480391"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2470,8 +3314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AG994"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2506,50 +3350,38 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="2:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="G3" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="67" t="s">
+      <c r="H3" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="69" t="s">
+      <c r="I3" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="71"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="88"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
     </row>
     <row r="4" spans="2:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="66"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
       <c r="I4" s="4" t="s">
         <v>5</v>
       </c>
@@ -2586,145 +3418,71 @@
       <c r="T4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="U4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="5" spans="2:33" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" s="5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="59" t="s">
-        <v>147</v>
+        <v>18</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>57</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="I5" s="60">
+        <v>60</v>
+      </c>
+      <c r="I5" s="27">
         <v>0</v>
       </c>
-      <c r="J5" s="60">
+      <c r="J5" s="27">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="K5" s="60">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="L5" s="60">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="M5" s="60">
+      <c r="K5" s="27">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="L5" s="27">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="M5" s="27">
+        <v>6.2000000000000003E-5</v>
+      </c>
+      <c r="N5" s="27">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="O5" s="27">
+        <v>1.4E-5</v>
+      </c>
+      <c r="P5" s="27">
+        <v>3.8000000000000002E-5</v>
+      </c>
+      <c r="Q5" s="27">
+        <v>9.6000000000000002E-5</v>
+      </c>
+      <c r="R5" s="27">
+        <v>5.1999999999999997E-5</v>
+      </c>
+      <c r="S5" s="27">
+        <v>5.1999999999999997E-5</v>
+      </c>
+      <c r="T5" s="27">
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="N5" s="60">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="O5" s="60">
-        <v>1.4E-5</v>
-      </c>
-      <c r="P5" s="60">
-        <v>1.8E-5</v>
-      </c>
-      <c r="Q5" s="60">
-        <v>2.5999999999999998E-5</v>
-      </c>
-      <c r="R5" s="60">
-        <v>1.2E-5</v>
-      </c>
-      <c r="S5" s="60">
-        <v>1.2E-5</v>
-      </c>
-      <c r="T5" s="60">
-        <v>2.1999999999999999E-5</v>
-      </c>
-      <c r="U5" s="60">
-        <v>1.5E-5</v>
-      </c>
-      <c r="V5" s="60">
-        <v>1.8E-5</v>
-      </c>
-      <c r="W5" s="60">
-        <v>3.1999999999999999E-5</v>
-      </c>
-      <c r="X5" s="60">
-        <v>3.4999999999999997E-5</v>
-      </c>
-      <c r="Y5" s="60">
-        <v>3.8000000000000002E-5</v>
-      </c>
-      <c r="Z5" s="60">
-        <v>3.6000000000000001E-5</v>
-      </c>
-      <c r="AA5" s="60">
-        <v>2.8E-5</v>
-      </c>
-      <c r="AB5" s="60">
-        <v>3.4E-5</v>
-      </c>
-      <c r="AC5" s="60">
-        <v>3.6999999999999998E-5</v>
-      </c>
-      <c r="AD5" s="60">
-        <v>3.1999999999999999E-5</v>
-      </c>
-      <c r="AE5" s="60">
-        <v>2.9E-5</v>
-      </c>
-      <c r="AF5" s="60">
-        <v>3.8999999999999999E-5</v>
-      </c>
-      <c r="AG5" s="61">
-        <f>SUM(I5:AF5)</f>
-        <v>5.5900000000000004E-4</v>
-      </c>
+      <c r="U5" s="42"/>
+      <c r="AG5" s="28"/>
     </row>
     <row r="6" spans="2:33" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6" s="5" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="59" t="s">
-        <v>149</v>
+        <v>20</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>59</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -2738,42 +3496,18 @@
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7">
-        <v>14</v>
-      </c>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7">
-        <v>13</v>
-      </c>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7">
-        <v>11</v>
-      </c>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7">
-        <v>9</v>
-      </c>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7">
-        <v>7</v>
-      </c>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7">
-        <v>5</v>
-      </c>
     </row>
     <row r="7" spans="2:33" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="72"/>
-      <c r="C7" s="73"/>
-      <c r="E7" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="59" t="s">
-        <v>147</v>
+      <c r="B7" s="89"/>
+      <c r="C7" s="90"/>
+      <c r="E7" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>57</v>
       </c>
       <c r="H7" s="8">
         <v>1</v>
@@ -2804,26 +3538,14 @@
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
     </row>
     <row r="8" spans="2:33" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="59" t="s">
-        <v>147</v>
+      <c r="E8" s="95"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="26" t="s">
+        <v>57</v>
       </c>
       <c r="H8" s="8">
         <v>1</v>
@@ -2860,26 +3582,14 @@
       </c>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="2:33" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="59" t="s">
-        <v>147</v>
+      <c r="E9" s="96"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="26" t="s">
+        <v>57</v>
       </c>
       <c r="H9" s="8">
         <v>1</v>
@@ -2904,25 +3614,13 @@
         <v>1</v>
       </c>
       <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
     </row>
     <row r="10" spans="2:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="62" t="s">
-        <v>35</v>
+      <c r="E10" s="97" t="s">
+        <v>23</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G10" s="14">
         <f t="shared" ref="G10:H10" si="0">SUM(G11:G24)</f>
@@ -2964,685 +3662,505 @@
       </c>
       <c r="S10" s="16"/>
       <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="16"/>
     </row>
     <row r="11" spans="2:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="63"/>
-      <c r="F11" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="19">
+      <c r="E11" s="98"/>
+      <c r="F11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="18">
         <v>5000000</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="18">
         <f t="shared" ref="H11:H24" si="1">G11</f>
         <v>5000000</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="19">
         <v>3500000</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="19">
         <v>1500000</v>
       </c>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="22"/>
-      <c r="AD11" s="22"/>
-      <c r="AE11" s="23"/>
-      <c r="AF11" s="22"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
     </row>
     <row r="12" spans="2:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="63"/>
-      <c r="F12" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="19">
+      <c r="E12" s="98"/>
+      <c r="F12" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="18">
         <v>2000000</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="18">
         <f t="shared" si="1"/>
         <v>2000000</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="19">
         <v>2000000</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="22"/>
-      <c r="AD12" s="22"/>
-      <c r="AE12" s="23"/>
-      <c r="AF12" s="22"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
     </row>
     <row r="13" spans="2:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="63"/>
-      <c r="F13" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="19">
+      <c r="E13" s="98"/>
+      <c r="F13" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="18">
         <v>6000000</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="18">
         <f t="shared" si="1"/>
         <v>6000000</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="19">
         <v>1800000</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="19">
         <v>4200000</v>
       </c>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="22"/>
-      <c r="AB13" s="22"/>
-      <c r="AC13" s="22"/>
-      <c r="AD13" s="22"/>
-      <c r="AE13" s="23"/>
-      <c r="AF13" s="22"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
     </row>
     <row r="14" spans="2:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="63"/>
-      <c r="F14" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="19">
+      <c r="E14" s="98"/>
+      <c r="F14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="18">
         <v>12000000</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="18">
         <f t="shared" si="1"/>
         <v>12000000</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="19">
         <v>0</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="19">
         <v>2400000</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="19">
         <v>6000000</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="19">
         <v>3600000</v>
       </c>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="22"/>
-      <c r="AD14" s="22"/>
-      <c r="AE14" s="23"/>
-      <c r="AF14" s="22"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
     </row>
     <row r="15" spans="2:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="63"/>
-      <c r="F15" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="19">
+      <c r="E15" s="98"/>
+      <c r="F15" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="18">
         <v>12000000</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="18">
         <f t="shared" si="1"/>
         <v>12000000</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="19">
         <v>0</v>
       </c>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20">
+      <c r="J15" s="19"/>
+      <c r="K15" s="19">
         <v>1200000</v>
       </c>
-      <c r="L15" s="20">
+      <c r="L15" s="19">
         <v>4800000</v>
       </c>
-      <c r="M15" s="20">
+      <c r="M15" s="19">
         <v>3600000</v>
       </c>
-      <c r="N15" s="20">
+      <c r="N15" s="19">
         <v>2400000</v>
       </c>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="22"/>
-      <c r="AD15" s="22"/>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="22"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
     </row>
     <row r="16" spans="2:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="63"/>
-      <c r="F16" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="19">
+      <c r="E16" s="98"/>
+      <c r="F16" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="18">
         <v>12000000</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="18">
         <f t="shared" si="1"/>
         <v>12000000</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="19">
         <v>0</v>
       </c>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20">
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19">
         <v>2400000</v>
       </c>
-      <c r="N16" s="20">
+      <c r="N16" s="19">
         <v>3600000</v>
       </c>
-      <c r="O16" s="20">
+      <c r="O16" s="19">
         <v>2400000</v>
       </c>
-      <c r="P16" s="20">
+      <c r="P16" s="19">
         <v>3600000</v>
       </c>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="22"/>
-      <c r="AD16" s="22"/>
-      <c r="AE16" s="23"/>
-      <c r="AF16" s="22"/>
-    </row>
-    <row r="17" spans="5:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="63"/>
-      <c r="F17" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="19">
+      <c r="Q16" s="19"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+    </row>
+    <row r="17" spans="5:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="98"/>
+      <c r="F17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="18">
         <v>4000000</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="18">
         <f t="shared" si="1"/>
         <v>4000000</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="19">
         <v>0</v>
       </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20">
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19">
         <v>1200000</v>
       </c>
-      <c r="R17" s="21">
+      <c r="R17" s="20">
         <v>2800000</v>
       </c>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="22"/>
-      <c r="AB17" s="22"/>
-      <c r="AC17" s="22"/>
-      <c r="AD17" s="22"/>
-      <c r="AE17" s="23"/>
-      <c r="AF17" s="22"/>
-    </row>
-    <row r="18" spans="5:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="63"/>
-      <c r="F18" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="19">
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+    </row>
+    <row r="18" spans="5:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="98"/>
+      <c r="F18" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="18">
         <v>10000000</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="18">
         <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="19">
         <v>0</v>
       </c>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20">
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19">
         <v>4000000</v>
       </c>
-      <c r="Q18" s="20">
+      <c r="Q18" s="19">
         <v>6000000</v>
       </c>
-      <c r="R18" s="21"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="22"/>
-      <c r="AB18" s="22"/>
-      <c r="AC18" s="22"/>
-      <c r="AD18" s="22"/>
-      <c r="AE18" s="23"/>
-      <c r="AF18" s="22"/>
-    </row>
-    <row r="19" spans="5:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="63"/>
-      <c r="F19" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="19">
+      <c r="R18" s="20"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+    </row>
+    <row r="19" spans="5:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="98"/>
+      <c r="F19" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="18">
         <v>480000000</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="18">
         <f t="shared" si="1"/>
         <v>480000000</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19" s="19">
         <v>9600000</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J19" s="19">
         <v>24000000</v>
       </c>
-      <c r="K19" s="20">
+      <c r="K19" s="19">
         <v>72000000</v>
       </c>
-      <c r="L19" s="20">
+      <c r="L19" s="19">
         <v>96000000</v>
       </c>
-      <c r="M19" s="20">
+      <c r="M19" s="19">
         <v>96000000</v>
       </c>
-      <c r="N19" s="20">
+      <c r="N19" s="19">
         <v>72000000</v>
       </c>
-      <c r="O19" s="20">
+      <c r="O19" s="19">
         <v>48000000</v>
       </c>
-      <c r="P19" s="20">
+      <c r="P19" s="19">
         <v>33600000</v>
       </c>
-      <c r="Q19" s="20">
+      <c r="Q19" s="19">
         <v>19200000</v>
       </c>
-      <c r="R19" s="20">
+      <c r="R19" s="19">
         <v>9600000</v>
       </c>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="26"/>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="25"/>
-      <c r="AD19" s="25"/>
-      <c r="AE19" s="26"/>
-      <c r="AF19" s="25"/>
-    </row>
-    <row r="20" spans="5:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="63"/>
-      <c r="F20" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="19">
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+    </row>
+    <row r="20" spans="5:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="98"/>
+      <c r="F20" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="18">
         <v>60000000</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="18">
         <f t="shared" si="1"/>
         <v>60000000</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="19">
         <f>H20/6</f>
         <v>10000000</v>
       </c>
-      <c r="J20" s="20">
+      <c r="J20" s="19">
         <f t="shared" ref="J20:N20" si="2">I20</f>
         <v>10000000</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K20" s="19">
         <f t="shared" si="2"/>
         <v>10000000</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L20" s="19">
         <f t="shared" si="2"/>
         <v>10000000</v>
       </c>
-      <c r="M20" s="20">
+      <c r="M20" s="19">
         <f t="shared" si="2"/>
         <v>10000000</v>
       </c>
-      <c r="N20" s="20">
+      <c r="N20" s="19">
         <f t="shared" si="2"/>
         <v>10000000</v>
       </c>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20">
+      <c r="O20" s="19"/>
+      <c r="P20" s="19">
         <f>O20/6</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="22"/>
-      <c r="AB20" s="22"/>
-      <c r="AC20" s="22"/>
-      <c r="AD20" s="22"/>
-      <c r="AE20" s="23"/>
-      <c r="AF20" s="22"/>
-    </row>
-    <row r="21" spans="5:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="63"/>
-      <c r="F21" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="19">
+      <c r="Q20" s="19"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+    </row>
+    <row r="21" spans="5:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="98"/>
+      <c r="F21" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="18">
         <v>2000000</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="18">
         <f t="shared" si="1"/>
         <v>2000000</v>
       </c>
-      <c r="I21" s="20">
+      <c r="I21" s="19">
         <v>1000000</v>
       </c>
-      <c r="J21" s="20">
+      <c r="J21" s="19">
         <v>1000000</v>
       </c>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="22"/>
-      <c r="X21" s="22"/>
-      <c r="Y21" s="22"/>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="22"/>
-      <c r="AB21" s="22"/>
-      <c r="AC21" s="22"/>
-      <c r="AD21" s="22"/>
-      <c r="AE21" s="23"/>
-      <c r="AF21" s="22"/>
-    </row>
-    <row r="22" spans="5:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="63"/>
-      <c r="F22" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="19">
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+    </row>
+    <row r="22" spans="5:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="98"/>
+      <c r="F22" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="18">
         <v>5000000</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="18">
         <f t="shared" si="1"/>
         <v>5000000</v>
       </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20">
+      <c r="I22" s="19"/>
+      <c r="J22" s="19">
         <v>5000000</v>
       </c>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="22"/>
-      <c r="AB22" s="22"/>
-      <c r="AC22" s="22"/>
-      <c r="AD22" s="22"/>
-      <c r="AE22" s="23"/>
-      <c r="AF22" s="22"/>
-    </row>
-    <row r="23" spans="5:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="63"/>
-      <c r="F23" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="19">
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+    </row>
+    <row r="23" spans="5:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="98"/>
+      <c r="F23" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="18">
         <v>25000000</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="18">
         <f t="shared" si="1"/>
         <v>25000000</v>
       </c>
-      <c r="I23" s="20">
+      <c r="I23" s="19">
         <v>0</v>
       </c>
-      <c r="J23" s="20">
+      <c r="J23" s="19">
         <v>25000000</v>
       </c>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="22"/>
-      <c r="AB23" s="22"/>
-      <c r="AC23" s="22"/>
-      <c r="AD23" s="22"/>
-      <c r="AE23" s="23"/>
-      <c r="AF23" s="22"/>
-    </row>
-    <row r="24" spans="5:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="64"/>
-      <c r="F24" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="19">
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+    </row>
+    <row r="24" spans="5:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="99"/>
+      <c r="F24" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="18">
         <v>60000000</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="18">
         <f t="shared" si="1"/>
         <v>60000000</v>
       </c>
-      <c r="I24" s="20">
+      <c r="I24" s="19">
         <v>0</v>
       </c>
-      <c r="J24" s="20">
+      <c r="J24" s="19">
         <v>60000000</v>
       </c>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="22"/>
-      <c r="Z24" s="23"/>
-      <c r="AA24" s="22"/>
-      <c r="AB24" s="22"/>
-      <c r="AC24" s="22"/>
-      <c r="AD24" s="22"/>
-      <c r="AE24" s="23"/>
-      <c r="AF24" s="22"/>
-    </row>
-    <row r="25" spans="5:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+    </row>
+    <row r="25" spans="5:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E25" s="1"/>
       <c r="F25" s="2"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="5:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E26" s="1"/>
       <c r="F26" s="2"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="5:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E27" s="1"/>
       <c r="F27" s="2"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="5:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E28" s="1"/>
       <c r="F28" s="2"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="5:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E29" s="1"/>
       <c r="F29" s="2"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="5:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E30" s="1"/>
       <c r="F30" s="2"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="5:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E31" s="1"/>
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="5:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E32" s="1"/>
       <c r="F32" s="2"/>
       <c r="G32" s="3"/>
@@ -9442,638 +9960,693 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="5" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="45" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
     <col min="7" max="7" width="23.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1"/>
     <col min="9" max="26" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="82" t="s">
+    <row r="3" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="87"/>
-    </row>
-    <row r="5" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="64"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" s="29" t="s">
-        <v>56</v>
+      <c r="F4" s="110" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+    </row>
+    <row r="5" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="64" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="3:10" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="111" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="112" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+    </row>
+    <row r="7" spans="3:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="111"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+    </row>
+    <row r="8" spans="3:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="111"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+    </row>
+    <row r="9" spans="3:10" ht="119.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+    </row>
+    <row r="10" spans="3:10" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" s="62" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" s="62" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="105" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="103" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="103" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="103" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" s="103" t="s">
+        <v>105</v>
+      </c>
+      <c r="J12" s="103" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="105"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+    </row>
+    <row r="14" spans="3:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="105"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+    </row>
+    <row r="15" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="105"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+    </row>
+    <row r="16" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="105"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="106" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="103" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="103" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="103" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" s="103" t="s">
+        <v>105</v>
+      </c>
+      <c r="J16" s="103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="105"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="103"/>
+    </row>
+    <row r="18" spans="3:10" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="105"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
+    </row>
+    <row r="19" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="105"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="106" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="103" t="s">
+        <v>113</v>
+      </c>
+      <c r="H19" s="103" t="s">
+        <v>114</v>
+      </c>
+      <c r="I19" s="103" t="s">
+        <v>115</v>
+      </c>
+      <c r="J19" s="103" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="105"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103"/>
+    </row>
+    <row r="21" spans="3:10" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="105"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+    </row>
+    <row r="22" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="104" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="72">
+        <v>695000000</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="H22" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="I22" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="J22" s="62" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="104"/>
+      <c r="D23" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="72">
+        <v>5000000</v>
+      </c>
+      <c r="F23" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="H23" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="I23" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="J23" s="62" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="104"/>
+      <c r="D24" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="74">
+        <v>2000000</v>
+      </c>
+      <c r="F24" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="I24" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="J24" s="62" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="104"/>
+      <c r="D25" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="74">
+        <v>6000000</v>
+      </c>
+      <c r="F25" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="H25" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="I25" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="J25" s="62" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="104"/>
+      <c r="D26" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="75">
+        <v>12000000</v>
+      </c>
+      <c r="F26" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="I26" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="J26" s="62" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="104"/>
+      <c r="D27" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="89" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="32"/>
-    </row>
-    <row r="7" spans="3:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="63"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="34"/>
-    </row>
-    <row r="8" spans="3:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="64"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="37"/>
-    </row>
-    <row r="9" spans="3:10" ht="119.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="88" t="s">
+      <c r="E27" s="75">
+        <v>12000000</v>
+      </c>
+      <c r="F27" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="I27" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="J27" s="62" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="104"/>
+      <c r="D28" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="75">
+        <v>12000000</v>
+      </c>
+      <c r="F28" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="I28" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="J28" s="62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="104"/>
+      <c r="D29" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="89" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="32"/>
-    </row>
-    <row r="10" spans="3:10" ht="113.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="64"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="37"/>
-    </row>
-    <row r="11" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="79" t="s">
+      <c r="E29" s="75">
+        <v>4000000</v>
+      </c>
+      <c r="F29" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="I29" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="J29" s="62" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="104"/>
+      <c r="D30" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="72">
+        <v>10000000</v>
+      </c>
+      <c r="F30" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="H30" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="J30" s="62" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="104"/>
+      <c r="D31" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="63"/>
-      <c r="D12" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="34"/>
-    </row>
-    <row r="13" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="63"/>
-      <c r="D13" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="34"/>
-    </row>
-    <row r="14" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="63"/>
-      <c r="D14" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="34"/>
-    </row>
-    <row r="15" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="63"/>
-      <c r="D15" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="34"/>
-    </row>
-    <row r="16" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="63"/>
-      <c r="D16" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="34"/>
-    </row>
-    <row r="17" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="63"/>
-      <c r="D17" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="34"/>
-    </row>
-    <row r="18" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="63"/>
-      <c r="D18" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="34"/>
-    </row>
-    <row r="19" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="63"/>
-      <c r="D19" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="34"/>
-    </row>
-    <row r="20" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="63"/>
-      <c r="D20" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="34"/>
-    </row>
-    <row r="21" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="64"/>
-      <c r="D21" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="37"/>
-    </row>
-    <row r="22" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="62" t="s">
+      <c r="E31" s="72">
+        <v>480000000</v>
+      </c>
+      <c r="F31" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="H31" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="J31" s="62" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="104"/>
+      <c r="D32" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="72">
+        <v>60000000</v>
+      </c>
+      <c r="F32" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="G32" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="H32" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="J32" s="62" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="104"/>
+      <c r="D33" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="32"/>
-    </row>
-    <row r="23" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="63"/>
-      <c r="D23" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="34"/>
-    </row>
-    <row r="24" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="63"/>
-      <c r="D24" s="80" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="34"/>
-    </row>
-    <row r="25" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="63"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="34"/>
-    </row>
-    <row r="26" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="63"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="34"/>
-    </row>
-    <row r="27" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="63"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="34"/>
-    </row>
-    <row r="28" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="63"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="34"/>
-    </row>
-    <row r="29" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="63"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="34"/>
-    </row>
-    <row r="30" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="63"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="34"/>
-    </row>
-    <row r="31" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="63"/>
-      <c r="D31" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="34"/>
-    </row>
-    <row r="32" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="63"/>
-      <c r="D32" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="34"/>
-    </row>
-    <row r="33" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="63"/>
-      <c r="D33" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="34"/>
-    </row>
-    <row r="34" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="63"/>
-      <c r="D34" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="34"/>
-    </row>
-    <row r="35" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="63"/>
-      <c r="D35" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="34"/>
-    </row>
-    <row r="36" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="63"/>
-      <c r="D36" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="34"/>
-    </row>
-    <row r="37" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="63"/>
-      <c r="D37" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="34"/>
-    </row>
-    <row r="38" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="63"/>
-      <c r="D38" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="34"/>
-    </row>
-    <row r="39" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="63"/>
-      <c r="D39" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="34"/>
-    </row>
-    <row r="40" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="63"/>
-      <c r="D40" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="34"/>
-    </row>
-    <row r="41" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="63"/>
-      <c r="D41" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="34"/>
-    </row>
-    <row r="42" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="63"/>
-      <c r="D42" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="34"/>
-    </row>
-    <row r="43" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="63"/>
-      <c r="D43" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="34"/>
-    </row>
-    <row r="44" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="63"/>
-      <c r="D44" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="34"/>
-    </row>
-    <row r="45" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="63"/>
-      <c r="D45" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="34"/>
-    </row>
-    <row r="46" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="63"/>
-      <c r="D46" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="34"/>
-    </row>
-    <row r="47" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="63"/>
-      <c r="D47" s="42" t="s">
+      <c r="E33" s="72">
+        <v>2000000</v>
+      </c>
+      <c r="F33" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="44"/>
-    </row>
-    <row r="48" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="63"/>
-      <c r="D48" s="42" t="s">
+      <c r="G33" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="H33" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="I33" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="J33" s="62" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="104"/>
+      <c r="D34" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="72">
+        <v>5000000</v>
+      </c>
+      <c r="F34" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="H34" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="J34" s="62" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="104"/>
+      <c r="D35" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="72">
+        <v>25000000</v>
+      </c>
+      <c r="F35" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="44"/>
-    </row>
-    <row r="49" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="63"/>
-      <c r="D49" s="42" t="s">
+      <c r="G35" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="H35" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="J35" s="62" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="104"/>
+      <c r="D36" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="72">
+        <v>60000000</v>
+      </c>
+      <c r="F36" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="44"/>
-    </row>
-    <row r="50" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="63"/>
-      <c r="D50" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="44"/>
-    </row>
-    <row r="51" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="63"/>
-      <c r="D51" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="44"/>
-    </row>
-    <row r="52" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="64"/>
-      <c r="D52" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="E52" s="46"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="47"/>
-    </row>
-    <row r="53" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="G36" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="H36" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="I36" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="J36" s="62" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11011,21 +11584,42 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="27">
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:J4"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C21"/>
-    <mergeCell ref="C22:C52"/>
-    <mergeCell ref="D24:D30"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="C22:C36"/>
+    <mergeCell ref="D12:D21"/>
+    <mergeCell ref="C12:C21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F10" r:id="rId1" xr:uid="{19781335-1720-47F8-9FA4-422E5A6BE884}"/>
+    <hyperlink ref="F11" r:id="rId2" xr:uid="{EC3CF793-07A3-45AC-869A-B5DEB0369E8B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -11033,8 +11627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11050,382 +11644,382 @@
   <sheetData>
     <row r="1" spans="4:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="4:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="4:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="124" t="s">
+    <row r="3" spans="4:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="125" t="s">
+      <c r="E3" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="125" t="s">
+      <c r="F3" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="124" t="s">
-        <v>101</v>
-      </c>
-      <c r="H3" s="126" t="s">
-        <v>102</v>
-      </c>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="N3" s="48"/>
+      <c r="G3" s="123" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="124" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="126"/>
+      <c r="N3" s="25"/>
     </row>
     <row r="4" spans="4:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="128" t="s">
-        <v>103</v>
-      </c>
-      <c r="I4" s="128" t="s">
-        <v>104</v>
-      </c>
-      <c r="J4" s="128" t="s">
-        <v>105</v>
-      </c>
-      <c r="K4" s="128" t="s">
-        <v>106</v>
-      </c>
-      <c r="L4" s="128" t="s">
-        <v>107</v>
+      <c r="D4" s="120"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="77" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="4:14" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+    </row>
+    <row r="6" spans="4:14" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+    </row>
+    <row r="7" spans="4:14" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="127" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="127" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="34"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="4:14" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="4:14" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="85" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="36"/>
+      <c r="L9" s="41"/>
+    </row>
+    <row r="10" spans="4:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="78">
+        <v>695000000</v>
+      </c>
+      <c r="G10" s="117" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="113" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="113"/>
+    </row>
+    <row r="11" spans="4:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="115"/>
+      <c r="E11" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="33">
+        <v>5000000</v>
+      </c>
+      <c r="G11" s="117"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="113"/>
+      <c r="L11" s="113"/>
+    </row>
+    <row r="12" spans="4:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="115"/>
+      <c r="E12" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="33">
+        <v>2000000</v>
+      </c>
+      <c r="G12" s="117"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
+    </row>
+    <row r="13" spans="4:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="115"/>
+      <c r="E13" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="33">
+        <v>6000000</v>
+      </c>
+      <c r="G13" s="117"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
+      <c r="L13" s="113"/>
+    </row>
+    <row r="14" spans="4:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="115"/>
+      <c r="E14" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="33">
+        <v>12000000</v>
+      </c>
+      <c r="G14" s="117"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="113"/>
+    </row>
+    <row r="15" spans="4:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="115"/>
+      <c r="E15" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="116" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" s="117" t="s">
-        <v>147</v>
-      </c>
-      <c r="G5" s="97" t="s">
-        <v>152</v>
-      </c>
-      <c r="H5" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-    </row>
-    <row r="6" spans="4:14" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="118" t="s">
+      <c r="F15" s="33">
+        <v>12000000</v>
+      </c>
+      <c r="G15" s="117"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="113"/>
+    </row>
+    <row r="16" spans="4:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="115"/>
+      <c r="E16" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="33">
+        <v>12000000</v>
+      </c>
+      <c r="G16" s="117"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
+    </row>
+    <row r="17" spans="4:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="115"/>
+      <c r="E17" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="114" t="s">
-        <v>153</v>
-      </c>
-      <c r="F6" s="114" t="s">
-        <v>161</v>
-      </c>
-      <c r="G6" s="119" t="s">
-        <v>154</v>
-      </c>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-    </row>
-    <row r="7" spans="4:14" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="120" t="s">
+      <c r="F17" s="33">
+        <v>4000000</v>
+      </c>
+      <c r="G17" s="117"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="113"/>
+      <c r="L17" s="113"/>
+    </row>
+    <row r="18" spans="4:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="115"/>
+      <c r="E18" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="33">
+        <v>10000000</v>
+      </c>
+      <c r="G18" s="117"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="113"/>
+      <c r="K18" s="113"/>
+      <c r="L18" s="113"/>
+    </row>
+    <row r="19" spans="4:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="115"/>
+      <c r="E19" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="120" t="s">
+      <c r="F19" s="33">
+        <v>480000000</v>
+      </c>
+      <c r="G19" s="117"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="113"/>
+    </row>
+    <row r="20" spans="4:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="115"/>
+      <c r="E20" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="121" t="s">
-        <v>155</v>
-      </c>
-      <c r="G7" s="99" t="s">
-        <v>156</v>
-      </c>
-      <c r="H7" s="122" t="s">
-        <v>108</v>
-      </c>
-      <c r="I7" s="97"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="4:14" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="121" t="s">
-        <v>147</v>
-      </c>
-      <c r="G8" s="97" t="s">
-        <v>157</v>
-      </c>
-      <c r="H8" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="4:14" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="123" t="s">
-        <v>158</v>
-      </c>
-      <c r="G9" s="100" t="s">
-        <v>159</v>
-      </c>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="102" t="s">
-        <v>108</v>
-      </c>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-    </row>
-    <row r="10" spans="4:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="104" t="s">
+      <c r="F20" s="33">
+        <v>60000000</v>
+      </c>
+      <c r="G20" s="117"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="113"/>
+    </row>
+    <row r="21" spans="4:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="115"/>
+      <c r="E21" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="103" t="s">
+      <c r="F21" s="33">
+        <v>2000000</v>
+      </c>
+      <c r="G21" s="117"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="113"/>
+    </row>
+    <row r="22" spans="4:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="115"/>
+      <c r="E22" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="115">
-        <v>695000000</v>
-      </c>
-      <c r="G10" s="107" t="s">
-        <v>160</v>
-      </c>
-      <c r="H10" s="108" t="s">
-        <v>108</v>
-      </c>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
-      <c r="L10" s="108"/>
-    </row>
-    <row r="11" spans="4:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="104"/>
-      <c r="E11" s="105" t="s">
+      <c r="F22" s="33">
+        <v>5000000</v>
+      </c>
+      <c r="G22" s="117"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="113"/>
+      <c r="L22" s="113"/>
+    </row>
+    <row r="23" spans="4:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="115"/>
+      <c r="E23" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="106">
-        <v>5000000</v>
-      </c>
-      <c r="G11" s="107"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="108"/>
-    </row>
-    <row r="12" spans="4:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="104"/>
-      <c r="E12" s="105" t="s">
+      <c r="F23" s="33">
+        <v>25000000</v>
+      </c>
+      <c r="G23" s="117"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="113"/>
+    </row>
+    <row r="24" spans="4:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="116"/>
+      <c r="E24" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="106">
-        <v>2000000</v>
-      </c>
-      <c r="G12" s="107"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-    </row>
-    <row r="13" spans="4:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="104"/>
-      <c r="E13" s="105" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="106">
-        <v>6000000</v>
-      </c>
-      <c r="G13" s="107"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="108"/>
-    </row>
-    <row r="14" spans="4:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="104"/>
-      <c r="E14" s="105" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="106">
-        <v>12000000</v>
-      </c>
-      <c r="G14" s="107"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="108"/>
-      <c r="L14" s="108"/>
-    </row>
-    <row r="15" spans="4:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="104"/>
-      <c r="E15" s="105" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="106">
-        <v>12000000</v>
-      </c>
-      <c r="G15" s="107"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="108"/>
-    </row>
-    <row r="16" spans="4:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="104"/>
-      <c r="E16" s="105" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="106">
-        <v>12000000</v>
-      </c>
-      <c r="G16" s="107"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
-    </row>
-    <row r="17" spans="4:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="104"/>
-      <c r="E17" s="105" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="106">
-        <v>4000000</v>
-      </c>
-      <c r="G17" s="107"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="108"/>
-      <c r="J17" s="108"/>
-      <c r="K17" s="108"/>
-      <c r="L17" s="108"/>
-    </row>
-    <row r="18" spans="4:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="104"/>
-      <c r="E18" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="106">
-        <v>10000000</v>
-      </c>
-      <c r="G18" s="107"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="108"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="108"/>
-    </row>
-    <row r="19" spans="4:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="104"/>
-      <c r="E19" s="109" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="106">
-        <v>480000000</v>
-      </c>
-      <c r="G19" s="107"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="108"/>
-      <c r="L19" s="108"/>
-    </row>
-    <row r="20" spans="4:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="104"/>
-      <c r="E20" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="106">
+      <c r="F24" s="33">
         <v>60000000</v>
       </c>
-      <c r="G20" s="107"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="108"/>
-      <c r="K20" s="108"/>
-      <c r="L20" s="108"/>
-    </row>
-    <row r="21" spans="4:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="104"/>
-      <c r="E21" s="105" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="106">
-        <v>2000000</v>
-      </c>
-      <c r="G21" s="107"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="108"/>
-      <c r="K21" s="108"/>
-      <c r="L21" s="108"/>
-    </row>
-    <row r="22" spans="4:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="104"/>
-      <c r="E22" s="105" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="106">
-        <v>5000000</v>
-      </c>
-      <c r="G22" s="107"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="108"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="108"/>
-    </row>
-    <row r="23" spans="4:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="104"/>
-      <c r="E23" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="106">
-        <v>25000000</v>
-      </c>
-      <c r="G23" s="107"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="108"/>
-      <c r="K23" s="108"/>
-      <c r="L23" s="108"/>
-    </row>
-    <row r="24" spans="4:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="110"/>
-      <c r="E24" s="111" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="106">
-        <v>60000000</v>
-      </c>
-      <c r="G24" s="112"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="113"/>
-      <c r="L24" s="113"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="114"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="114"/>
+      <c r="L24" s="114"/>
     </row>
     <row r="25" spans="4:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="4:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12405,20 +12999,20 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="I10:I24"/>
+    <mergeCell ref="J10:J24"/>
     <mergeCell ref="K10:K24"/>
     <mergeCell ref="L10:L24"/>
     <mergeCell ref="D10:D24"/>
     <mergeCell ref="G10:G24"/>
     <mergeCell ref="H10:H24"/>
-    <mergeCell ref="I10:I24"/>
-    <mergeCell ref="J10:J24"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -12430,530 +13024,371 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="11.5703125" customWidth="1"/>
+    <col min="1" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="53.42578125" customWidth="1"/>
     <col min="5" max="5" width="48.5703125" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32" customWidth="1"/>
     <col min="8" max="26" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="49" t="s">
+    <row r="4" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="3:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="3:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D6" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="94" t="s">
+      <c r="E6" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="128" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="138" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="140" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="142" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="144" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="129"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="136"/>
+    </row>
+    <row r="9" spans="3:7" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="129"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="137"/>
+    </row>
+    <row r="10" spans="3:7" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="128" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="138" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="140" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="142" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="144" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="130"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="136"/>
+    </row>
+    <row r="12" spans="3:7" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="131" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="149" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="132"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" ht="112.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="133"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="134" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="55"/>
+      <c r="F15" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="136" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="134"/>
+      <c r="D16" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="55"/>
+      <c r="F16" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="136"/>
+    </row>
+    <row r="17" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="134"/>
+      <c r="D17" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="55">
+        <v>2000000</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="136"/>
+    </row>
+    <row r="18" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="134"/>
+      <c r="D18" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="55">
+        <v>6000000</v>
+      </c>
+      <c r="F18" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="136"/>
+    </row>
+    <row r="19" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="134"/>
+      <c r="D19" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="58">
+        <v>12000000</v>
+      </c>
+      <c r="F19" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="136"/>
+    </row>
+    <row r="20" spans="3:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="134"/>
+      <c r="D20" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="95" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" s="52"/>
-    </row>
-    <row r="6" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="75"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="G6" s="44"/>
-    </row>
-    <row r="7" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="75"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="53" t="s">
-        <v>116</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7" s="47"/>
-    </row>
-    <row r="8" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="94" t="s">
+      <c r="E20" s="58">
+        <v>12000000</v>
+      </c>
+      <c r="F20" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="136"/>
+    </row>
+    <row r="21" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="134"/>
+      <c r="D21" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="58">
+        <v>12000000</v>
+      </c>
+      <c r="F21" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="136"/>
+    </row>
+    <row r="22" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="134"/>
+      <c r="D22" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="95" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="G8" s="96" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="68"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9" s="92"/>
-    </row>
-    <row r="10" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="54"/>
-      <c r="D10" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="90" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="54"/>
-      <c r="D11" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="91"/>
-    </row>
-    <row r="12" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="54"/>
-      <c r="D12" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="91"/>
-    </row>
-    <row r="13" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="54"/>
-      <c r="D13" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="91"/>
-    </row>
-    <row r="14" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="54"/>
-      <c r="D14" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="91"/>
-    </row>
-    <row r="15" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="54"/>
-      <c r="D15" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="91"/>
-    </row>
-    <row r="16" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="54"/>
-      <c r="D16" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="91"/>
-    </row>
-    <row r="17" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="54"/>
-      <c r="D17" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="91"/>
-    </row>
-    <row r="18" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="54"/>
-      <c r="D18" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="91"/>
-    </row>
-    <row r="19" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="54"/>
-      <c r="D19" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="91"/>
-    </row>
-    <row r="20" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="54"/>
-      <c r="D20" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="53"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="92"/>
-    </row>
-    <row r="21" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="54"/>
-      <c r="D21" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="51"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="90" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="54"/>
-      <c r="D22" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="91"/>
+      <c r="E22" s="58">
+        <v>4000000</v>
+      </c>
+      <c r="F22" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="136"/>
     </row>
     <row r="23" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="54"/>
-      <c r="D23" s="93" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" s="91"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="55">
+        <v>10000000</v>
+      </c>
+      <c r="F23" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="136"/>
     </row>
     <row r="24" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="54"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="G24" s="91"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="55">
+        <v>480000000</v>
+      </c>
+      <c r="F24" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="136"/>
     </row>
     <row r="25" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="54"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="F25" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="G25" s="91"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="55">
+        <v>60000000</v>
+      </c>
+      <c r="F25" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" s="136"/>
     </row>
     <row r="26" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="54"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="F26" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="G26" s="91"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="55">
+        <v>2000000</v>
+      </c>
+      <c r="F26" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="136"/>
     </row>
     <row r="27" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="54"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="F27" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="G27" s="91"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="55">
+        <v>5000000</v>
+      </c>
+      <c r="F27" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="136"/>
     </row>
     <row r="28" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="54"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="F28" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="G28" s="91"/>
-    </row>
-    <row r="29" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="54"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="F29" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="G29" s="91"/>
-    </row>
-    <row r="30" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="54"/>
-      <c r="D30" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="91"/>
-    </row>
-    <row r="31" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="54"/>
-      <c r="D31" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="43"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="91"/>
-    </row>
-    <row r="32" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="54"/>
-      <c r="D32" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="43"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="91"/>
-    </row>
-    <row r="33" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="54"/>
-      <c r="D33" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" s="43"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="91"/>
-    </row>
-    <row r="34" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="54"/>
-      <c r="D34" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="43"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="91"/>
-    </row>
-    <row r="35" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="54"/>
-      <c r="D35" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="43"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="91"/>
-    </row>
-    <row r="36" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="54"/>
-      <c r="D36" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" s="43"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="91"/>
-    </row>
-    <row r="37" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="54"/>
-      <c r="D37" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="E37" s="43"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="91"/>
-    </row>
-    <row r="38" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="54"/>
-      <c r="D38" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="E38" s="43"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="91"/>
-    </row>
-    <row r="39" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="54"/>
-      <c r="D39" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="E39" s="43"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="91"/>
-    </row>
-    <row r="40" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="54"/>
-      <c r="D40" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="E40" s="43"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="91"/>
-    </row>
-    <row r="41" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="54"/>
-      <c r="D41" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="E41" s="43"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="91"/>
-    </row>
-    <row r="42" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="54"/>
-      <c r="D42" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="E42" s="43"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="91"/>
-    </row>
-    <row r="43" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="54"/>
-      <c r="D43" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="E43" s="43"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="91"/>
-    </row>
-    <row r="44" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="54"/>
-      <c r="D44" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="E44" s="43"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="91"/>
-    </row>
-    <row r="45" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="54"/>
-      <c r="D45" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="E45" s="43"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="91"/>
-    </row>
-    <row r="46" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="54"/>
-      <c r="D46" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="E46" s="43"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="91"/>
-    </row>
-    <row r="47" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="54"/>
-      <c r="D47" s="56" t="s">
+      <c r="C28" s="134"/>
+      <c r="D28" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="55">
+        <v>25000000</v>
+      </c>
+      <c r="F28" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="43"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="91"/>
-    </row>
-    <row r="48" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="54"/>
-      <c r="D48" s="56" t="s">
+      <c r="G28" s="136"/>
+    </row>
+    <row r="29" spans="3:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="135"/>
+      <c r="D29" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="60">
+        <v>60000000</v>
+      </c>
+      <c r="F29" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="E48" s="43"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="91"/>
-    </row>
-    <row r="49" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="54"/>
-      <c r="D49" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="E49" s="43"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="91"/>
-    </row>
-    <row r="50" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="54"/>
-      <c r="D50" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="E50" s="43"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="91"/>
-    </row>
-    <row r="51" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="58"/>
-      <c r="D51" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="E51" s="53"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="92"/>
-    </row>
-    <row r="52" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="G29" s="137"/>
+    </row>
+    <row r="30" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13891,21 +14326,27 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="G10:G20"/>
-    <mergeCell ref="G21:G51"/>
-    <mergeCell ref="D23:D29"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="G8:G9"/>
+  <mergeCells count="14">
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C29"/>
+    <mergeCell ref="G15:G29"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="D12:D14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="F7" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="F10" r:id="rId1" xr:uid="{4DC46B8F-FF4B-4F56-AD29-FE1763545FCC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ExcelTables/Matrices para MML.xlsx
+++ b/ExcelTables/Matrices para MML.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanb\OneDrive\Documentos\GitHub\GerenciaProyectos\ExcelTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A055492-0DA5-4A18-AEEC-F942DE039011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF918153-CB60-471B-94AB-FE08A6958264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicadores y metas inter" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="146">
   <si>
     <t>NIVEL</t>
   </si>
@@ -410,15 +410,9 @@
     <t>Anual</t>
   </si>
   <si>
-    <t>Alcaldía Local</t>
-  </si>
-  <si>
     <t>Consulta en las bases de datos del sistema, mediante reportes automáticos o consultas que miden el tiempo entre la radicación y la aprobación.</t>
   </si>
   <si>
-    <t>(Cuantitativo) Análisi cuantitativo del aumento de la cantidad de licencias procesadas mensualmente antes y después de la implementación del sistema</t>
-  </si>
-  <si>
     <t>Mensual</t>
   </si>
   <si>
@@ -440,19 +434,10 @@
     <t>Revisión documental de las actas de recepción y verificación física del inventario para confirmar ubicación y número de serie.</t>
   </si>
   <si>
-    <t>(Cuantitativo) Calculo del porcentaje de equipos instalados.</t>
-  </si>
-  <si>
     <t>Revisión documental de las listas de asistencia y los registros de las calificaciones obtenidas en las pruebas finales.</t>
   </si>
   <si>
-    <t>(Cuantitativo) Calculo del porcentaje de asistencia y aprobación.</t>
-  </si>
-  <si>
     <t>Trimestral</t>
-  </si>
-  <si>
-    <t>Talento Humano</t>
   </si>
   <si>
     <t>Documento final</t>
@@ -552,6 +537,24 @@
   <si>
     <t>Revisión de documentos de
 arrendamiento</t>
+  </si>
+  <si>
+    <t>DANE</t>
+  </si>
+  <si>
+    <t>(Cuantitativo) Análisis cuantitativo del aumento de la cantidad de licencias procesadas mensualmente antes y después de la implementación del sistema</t>
+  </si>
+  <si>
+    <t>(Cuantitativo) Cálculo del porcentaje de equipos instalados.</t>
+  </si>
+  <si>
+    <t>Ingenieros de Sistemas</t>
+  </si>
+  <si>
+    <t>(Cuantitativo) Cálculo del porcentaje de asistencia y aprobación.</t>
+  </si>
+  <si>
+    <t>Jefe de Área</t>
   </si>
 </sst>
 </file>
@@ -1525,7 +1528,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1795,6 +1798,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1807,40 +1819,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1859,7 +1838,22 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2661,6 +2655,50 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>11683</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1724026</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>391595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AFA9487-1BF6-438E-B0C3-478FA1E677C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4336033" y="4688205"/>
+          <a:ext cx="1712343" cy="284915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3314,7 +3352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AG994"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
@@ -9960,8 +9998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9971,36 +10009,38 @@
     <col min="4" max="4" width="25.85546875" customWidth="1"/>
     <col min="5" max="5" width="45" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1"/>
     <col min="8" max="8" width="25.7109375" customWidth="1"/>
-    <col min="9" max="26" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" customWidth="1"/>
+    <col min="11" max="26" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="110" t="s">
+      <c r="D4" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="110" t="s">
+      <c r="E4" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="110" t="s">
+      <c r="F4" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
     </row>
     <row r="5" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
       <c r="F5" s="64" t="s">
         <v>40</v>
       </c>
@@ -10018,10 +10058,10 @@
       </c>
     </row>
     <row r="6" spans="3:10" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="112" t="s">
+      <c r="D6" s="105" t="s">
         <v>98</v>
       </c>
       <c r="E6" s="65"/>
@@ -10032,8 +10072,8 @@
       <c r="J6" s="65"/>
     </row>
     <row r="7" spans="3:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="111"/>
-      <c r="D7" s="112"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="105"/>
       <c r="E7" s="65"/>
       <c r="F7" s="65"/>
       <c r="G7" s="65"/>
@@ -10042,8 +10082,8 @@
       <c r="J7" s="65"/>
     </row>
     <row r="8" spans="3:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="111"/>
-      <c r="D8" s="112"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="105"/>
       <c r="E8" s="65"/>
       <c r="F8" s="66"/>
       <c r="G8" s="65"/>
@@ -10088,7 +10128,7 @@
         <v>101</v>
       </c>
       <c r="J10" s="62" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="3:10" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10105,160 +10145,170 @@
         <v>79</v>
       </c>
       <c r="G11" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="I11" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="H11" s="62" t="s">
+      <c r="J11" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="I11" s="62" t="s">
+    </row>
+    <row r="12" spans="3:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="108" t="s">
         <v>105</v>
       </c>
-      <c r="J11" s="62" t="s">
+      <c r="D12" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="106" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="106" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="12" spans="3:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="105" t="s">
+      <c r="H12" s="106" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="103" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="107" t="s">
+      <c r="I12" s="106" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" s="106" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="108"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+    </row>
+    <row r="14" spans="3:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="108"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="106"/>
+    </row>
+    <row r="15" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="108"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="106" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" s="106" t="s">
+        <v>142</v>
+      </c>
+      <c r="I15" s="106" t="s">
+        <v>103</v>
+      </c>
+      <c r="J15" s="106" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="108"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="103" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="103" t="s">
-        <v>108</v>
-      </c>
-      <c r="H12" s="103" t="s">
-        <v>109</v>
-      </c>
-      <c r="I12" s="103" t="s">
-        <v>105</v>
-      </c>
-      <c r="J12" s="103" t="s">
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+    </row>
+    <row r="17" spans="3:10" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="108"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="106"/>
+    </row>
+    <row r="18" spans="3:10" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="108"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="106" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="106" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="13" spans="3:10" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="105"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-    </row>
-    <row r="14" spans="3:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="105"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
-    </row>
-    <row r="15" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="105"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="103"/>
-    </row>
-    <row r="16" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="105"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="106" t="s">
+      <c r="H18" s="106" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="J18" s="106" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="108"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="103" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" s="103" t="s">
-        <v>111</v>
-      </c>
-      <c r="H16" s="103" t="s">
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="106"/>
+    </row>
+    <row r="20" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="108"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="106"/>
+    </row>
+    <row r="21" spans="3:10" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="108"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="I16" s="103" t="s">
-        <v>105</v>
-      </c>
-      <c r="J16" s="103" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="105"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="103"/>
-    </row>
-    <row r="18" spans="3:10" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="105"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-    </row>
-    <row r="19" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="105"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="106" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="103" t="s">
-        <v>82</v>
-      </c>
-      <c r="G19" s="103" t="s">
+      <c r="H21" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="H19" s="103" t="s">
+      <c r="I21" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="I19" s="103" t="s">
+      <c r="J21" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="J19" s="103" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="105"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="103"/>
-    </row>
-    <row r="21" spans="3:10" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="105"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-    </row>
-    <row r="22" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="104" t="s">
+    </row>
+    <row r="22" spans="3:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="107" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="71" t="s">
@@ -10267,72 +10317,72 @@
       <c r="E22" s="72">
         <v>695000000</v>
       </c>
-      <c r="F22" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22" s="73" t="s">
+      <c r="F22" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="I22" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="J22" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="H22" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="I22" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="J22" s="62" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="104"/>
+    </row>
+    <row r="23" spans="3:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="107"/>
       <c r="D23" s="71" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="72">
         <v>5000000</v>
       </c>
-      <c r="F23" s="62" t="s">
-        <v>86</v>
+      <c r="F23" s="73" t="s">
+        <v>87</v>
       </c>
       <c r="G23" s="62" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H23" s="62" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I23" s="62" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J23" s="62" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="104"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="107"/>
       <c r="D24" s="29" t="s">
         <v>26</v>
       </c>
       <c r="E24" s="74">
         <v>2000000</v>
       </c>
-      <c r="F24" s="73" t="s">
-        <v>87</v>
+      <c r="F24" s="62" t="s">
+        <v>88</v>
       </c>
       <c r="G24" s="62" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H24" s="62" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I24" s="62" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J24" s="62" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="104"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="107"/>
       <c r="D25" s="29" t="s">
         <v>27</v>
       </c>
@@ -10340,23 +10390,23 @@
         <v>6000000</v>
       </c>
       <c r="F25" s="62" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G25" s="62" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H25" s="62" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I25" s="62" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J25" s="62" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="104"/>
+    <row r="26" spans="3:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="107"/>
       <c r="D26" s="29" t="s">
         <v>28</v>
       </c>
@@ -10364,23 +10414,23 @@
         <v>12000000</v>
       </c>
       <c r="F26" s="62" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G26" s="62" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H26" s="62" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I26" s="62" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="J26" s="62" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="104"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="107"/>
       <c r="D27" s="29" t="s">
         <v>29</v>
       </c>
@@ -10388,23 +10438,23 @@
         <v>12000000</v>
       </c>
       <c r="F27" s="62" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G27" s="62" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H27" s="62" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I27" s="62" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J27" s="62" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="104"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="107"/>
       <c r="D28" s="29" t="s">
         <v>30</v>
       </c>
@@ -10412,23 +10462,23 @@
         <v>12000000</v>
       </c>
       <c r="F28" s="62" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G28" s="62" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H28" s="62" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I28" s="62" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="J28" s="62" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="104"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="107"/>
       <c r="D29" s="29" t="s">
         <v>31</v>
       </c>
@@ -10439,20 +10489,20 @@
         <v>92</v>
       </c>
       <c r="G29" s="62" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H29" s="62" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="I29" s="62" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J29" s="62" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="104"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="107"/>
       <c r="D30" s="62" t="s">
         <v>32</v>
       </c>
@@ -10460,23 +10510,23 @@
         <v>10000000</v>
       </c>
       <c r="F30" s="62" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G30" s="62" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H30" s="62" t="s">
         <v>46</v>
       </c>
       <c r="I30" s="62" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="J30" s="62" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="104"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="107"/>
       <c r="D31" s="62" t="s">
         <v>33</v>
       </c>
@@ -10484,23 +10534,23 @@
         <v>480000000</v>
       </c>
       <c r="F31" s="62" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G31" s="62" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H31" s="62" t="s">
         <v>46</v>
       </c>
       <c r="I31" s="62" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J31" s="62" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="32" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="104"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="107"/>
       <c r="D32" s="62" t="s">
         <v>34</v>
       </c>
@@ -10508,23 +10558,23 @@
         <v>60000000</v>
       </c>
       <c r="F32" s="62" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G32" s="62" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H32" s="62" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="I32" s="62" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="J32" s="62" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="104"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="107"/>
       <c r="D33" s="62" t="s">
         <v>35</v>
       </c>
@@ -10535,20 +10585,20 @@
         <v>95</v>
       </c>
       <c r="G33" s="62" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H33" s="62" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="I33" s="62" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="J33" s="62" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="34" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="104"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="107"/>
       <c r="D34" s="62" t="s">
         <v>36</v>
       </c>
@@ -10556,23 +10606,23 @@
         <v>5000000</v>
       </c>
       <c r="F34" s="62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G34" s="62" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H34" s="62" t="s">
         <v>46</v>
       </c>
       <c r="I34" s="62" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="J34" s="62" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="104"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="107"/>
       <c r="D35" s="62" t="s">
         <v>37</v>
       </c>
@@ -10580,23 +10630,23 @@
         <v>25000000</v>
       </c>
       <c r="F35" s="62" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G35" s="62" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H35" s="62" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="I35" s="62" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="J35" s="62" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="104"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="107"/>
       <c r="D36" s="62" t="s">
         <v>38</v>
       </c>
@@ -10607,16 +10657,16 @@
         <v>97</v>
       </c>
       <c r="G36" s="62" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H36" s="62" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I36" s="62" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J36" s="62" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11585,37 +11635,37 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="C22:C36"/>
+    <mergeCell ref="D12:D21"/>
+    <mergeCell ref="C12:C21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="F18:F20"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:J4"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="C22:C36"/>
-    <mergeCell ref="D12:D21"/>
-    <mergeCell ref="C12:C21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F10" r:id="rId1" xr:uid="{19781335-1720-47F8-9FA4-422E5A6BE884}"/>
-    <hyperlink ref="F11" r:id="rId2" xr:uid="{EC3CF793-07A3-45AC-869A-B5DEB0369E8B}"/>
+    <hyperlink ref="F10" r:id="rId1" xr:uid="{7D9AB7E4-77FF-425E-B61B-10D8026EE552}"/>
+    <hyperlink ref="F11" r:id="rId2" xr:uid="{C50B82D3-0DA4-4381-A87B-024540F50D43}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -11645,32 +11695,32 @@
     <row r="1" spans="4:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="4:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="121" t="s">
+      <c r="E3" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="123" t="s">
+      <c r="G3" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="124" t="s">
+      <c r="H3" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="126"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="118"/>
       <c r="N3" s="25"/>
     </row>
     <row r="4" spans="4:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="120"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
       <c r="H4" s="76" t="s">
         <v>49</v>
       </c>
@@ -11732,10 +11782,10 @@
       <c r="L6" s="37"/>
     </row>
     <row r="7" spans="4:14" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="127" t="s">
+      <c r="D7" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="127" t="s">
+      <c r="E7" s="110" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="82" t="s">
@@ -11755,8 +11805,8 @@
       </c>
     </row>
     <row r="8" spans="4:14" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
       <c r="F8" s="82" t="s">
         <v>57</v>
       </c>
@@ -11774,8 +11824,8 @@
       </c>
     </row>
     <row r="9" spans="4:14" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
       <c r="F9" s="85" t="s">
         <v>68</v>
       </c>
@@ -11791,7 +11841,7 @@
       <c r="L9" s="41"/>
     </row>
     <row r="10" spans="4:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="115" t="s">
+      <c r="D10" s="121" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="35" t="s">
@@ -11800,226 +11850,226 @@
       <c r="F10" s="78">
         <v>695000000</v>
       </c>
-      <c r="G10" s="117" t="s">
+      <c r="G10" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="113" t="s">
+      <c r="H10" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="113"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
     </row>
     <row r="11" spans="4:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="115"/>
+      <c r="D11" s="121"/>
       <c r="E11" s="30" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="33">
         <v>5000000</v>
       </c>
-      <c r="G11" s="117"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="113"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="119"/>
     </row>
     <row r="12" spans="4:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="115"/>
+      <c r="D12" s="121"/>
       <c r="E12" s="30" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="33">
         <v>2000000</v>
       </c>
-      <c r="G12" s="117"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="113"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="119"/>
     </row>
     <row r="13" spans="4:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="115"/>
+      <c r="D13" s="121"/>
       <c r="E13" s="30" t="s">
         <v>27</v>
       </c>
       <c r="F13" s="33">
         <v>6000000</v>
       </c>
-      <c r="G13" s="117"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="113"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="119"/>
     </row>
     <row r="14" spans="4:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="115"/>
+      <c r="D14" s="121"/>
       <c r="E14" s="30" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="33">
         <v>12000000</v>
       </c>
-      <c r="G14" s="117"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="113"/>
-      <c r="L14" s="113"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="119"/>
     </row>
     <row r="15" spans="4:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="115"/>
+      <c r="D15" s="121"/>
       <c r="E15" s="30" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="33">
         <v>12000000</v>
       </c>
-      <c r="G15" s="117"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="113"/>
-      <c r="L15" s="113"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="119"/>
+      <c r="K15" s="119"/>
+      <c r="L15" s="119"/>
     </row>
     <row r="16" spans="4:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="115"/>
+      <c r="D16" s="121"/>
       <c r="E16" s="30" t="s">
         <v>30</v>
       </c>
       <c r="F16" s="33">
         <v>12000000</v>
       </c>
-      <c r="G16" s="117"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="113"/>
-      <c r="K16" s="113"/>
-      <c r="L16" s="113"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="119"/>
     </row>
     <row r="17" spans="4:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="115"/>
+      <c r="D17" s="121"/>
       <c r="E17" s="30" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="33">
         <v>4000000</v>
       </c>
-      <c r="G17" s="117"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="113"/>
-      <c r="L17" s="113"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="119"/>
+      <c r="K17" s="119"/>
+      <c r="L17" s="119"/>
     </row>
     <row r="18" spans="4:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="115"/>
+      <c r="D18" s="121"/>
       <c r="E18" s="30" t="s">
         <v>32</v>
       </c>
       <c r="F18" s="33">
         <v>10000000</v>
       </c>
-      <c r="G18" s="117"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="113"/>
-      <c r="L18" s="113"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="119"/>
     </row>
     <row r="19" spans="4:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="115"/>
+      <c r="D19" s="121"/>
       <c r="E19" s="31" t="s">
         <v>33</v>
       </c>
       <c r="F19" s="33">
         <v>480000000</v>
       </c>
-      <c r="G19" s="117"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="113"/>
-      <c r="L19" s="113"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="119"/>
     </row>
     <row r="20" spans="4:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="115"/>
+      <c r="D20" s="121"/>
       <c r="E20" s="30" t="s">
         <v>34</v>
       </c>
       <c r="F20" s="33">
         <v>60000000</v>
       </c>
-      <c r="G20" s="117"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="113"/>
-      <c r="L20" s="113"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="119"/>
     </row>
     <row r="21" spans="4:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="115"/>
+      <c r="D21" s="121"/>
       <c r="E21" s="30" t="s">
         <v>35</v>
       </c>
       <c r="F21" s="33">
         <v>2000000</v>
       </c>
-      <c r="G21" s="117"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="113"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="119"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="119"/>
     </row>
     <row r="22" spans="4:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="115"/>
+      <c r="D22" s="121"/>
       <c r="E22" s="30" t="s">
         <v>36</v>
       </c>
       <c r="F22" s="33">
         <v>5000000</v>
       </c>
-      <c r="G22" s="117"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="113"/>
-      <c r="L22" s="113"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="119"/>
     </row>
     <row r="23" spans="4:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="115"/>
+      <c r="D23" s="121"/>
       <c r="E23" s="30" t="s">
         <v>37</v>
       </c>
       <c r="F23" s="33">
         <v>25000000</v>
       </c>
-      <c r="G23" s="117"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="113"/>
-      <c r="L23" s="113"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="119"/>
+      <c r="K23" s="119"/>
+      <c r="L23" s="119"/>
     </row>
     <row r="24" spans="4:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="116"/>
+      <c r="D24" s="122"/>
       <c r="E24" s="32" t="s">
         <v>38</v>
       </c>
       <c r="F24" s="33">
         <v>60000000</v>
       </c>
-      <c r="G24" s="118"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="114"/>
-      <c r="L24" s="114"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="120"/>
+      <c r="L24" s="120"/>
     </row>
     <row r="25" spans="4:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="4:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12999,20 +13049,20 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="D10:D24"/>
+    <mergeCell ref="G10:G24"/>
+    <mergeCell ref="H10:H24"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="I10:I24"/>
     <mergeCell ref="J10:J24"/>
     <mergeCell ref="K10:K24"/>
     <mergeCell ref="L10:L24"/>
-    <mergeCell ref="D10:D24"/>
-    <mergeCell ref="G10:G24"/>
-    <mergeCell ref="H10:H24"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -13024,7 +13074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C1:G1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
@@ -13062,65 +13112,65 @@
       </c>
     </row>
     <row r="7" spans="3:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="128" t="s">
+      <c r="C7" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="138" t="s">
+      <c r="D7" s="135" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="140" t="s">
+      <c r="E7" s="137" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="142" t="s">
+      <c r="F7" s="139" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="144" t="s">
+      <c r="G7" s="141" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="129"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="147"/>
-      <c r="G8" s="136"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="144"/>
+      <c r="G8" s="133"/>
     </row>
     <row r="9" spans="3:7" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="129"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="137"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="134"/>
     </row>
     <row r="10" spans="3:7" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="128" t="s">
+      <c r="C10" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="138" t="s">
+      <c r="D10" s="135" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="140" t="s">
+      <c r="E10" s="137" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="142" t="s">
+      <c r="F10" s="139" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="144" t="s">
+      <c r="G10" s="141" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="3:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="130"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="136"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="133"/>
     </row>
     <row r="12" spans="3:7" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="131" t="s">
+      <c r="C12" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="149" t="s">
+      <c r="D12" s="146" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="47" t="s">
@@ -13134,8 +13184,8 @@
       </c>
     </row>
     <row r="13" spans="3:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="132"/>
-      <c r="D13" s="150"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="147"/>
       <c r="E13" s="50" t="s">
         <v>57</v>
       </c>
@@ -13147,8 +13197,8 @@
       </c>
     </row>
     <row r="14" spans="3:7" ht="112.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="133"/>
-      <c r="D14" s="151"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="148"/>
       <c r="E14" s="52" t="s">
         <v>57</v>
       </c>
@@ -13160,7 +13210,7 @@
       </c>
     </row>
     <row r="15" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="134" t="s">
+      <c r="C15" s="131" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="54" t="s">
@@ -13170,12 +13220,12 @@
       <c r="F15" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="136" t="s">
+      <c r="G15" s="133" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="16" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="134"/>
+      <c r="C16" s="131"/>
       <c r="D16" s="54" t="s">
         <v>25</v>
       </c>
@@ -13183,10 +13233,10 @@
       <c r="F16" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="136"/>
+      <c r="G16" s="133"/>
     </row>
     <row r="17" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="134"/>
+      <c r="C17" s="131"/>
       <c r="D17" s="56" t="s">
         <v>26</v>
       </c>
@@ -13196,10 +13246,10 @@
       <c r="F17" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="G17" s="136"/>
+      <c r="G17" s="133"/>
     </row>
     <row r="18" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="134"/>
+      <c r="C18" s="131"/>
       <c r="D18" s="56" t="s">
         <v>27</v>
       </c>
@@ -13209,10 +13259,10 @@
       <c r="F18" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="G18" s="136"/>
+      <c r="G18" s="133"/>
     </row>
     <row r="19" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="134"/>
+      <c r="C19" s="131"/>
       <c r="D19" s="56" t="s">
         <v>28</v>
       </c>
@@ -13222,10 +13272,10 @@
       <c r="F19" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="136"/>
+      <c r="G19" s="133"/>
     </row>
     <row r="20" spans="3:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="134"/>
+      <c r="C20" s="131"/>
       <c r="D20" s="56" t="s">
         <v>29</v>
       </c>
@@ -13235,10 +13285,10 @@
       <c r="F20" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="G20" s="136"/>
+      <c r="G20" s="133"/>
     </row>
     <row r="21" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="134"/>
+      <c r="C21" s="131"/>
       <c r="D21" s="56" t="s">
         <v>30</v>
       </c>
@@ -13248,10 +13298,10 @@
       <c r="F21" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="G21" s="136"/>
+      <c r="G21" s="133"/>
     </row>
     <row r="22" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="134"/>
+      <c r="C22" s="131"/>
       <c r="D22" s="56" t="s">
         <v>31</v>
       </c>
@@ -13261,10 +13311,10 @@
       <c r="F22" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="G22" s="136"/>
+      <c r="G22" s="133"/>
     </row>
     <row r="23" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="134"/>
+      <c r="C23" s="131"/>
       <c r="D23" s="54" t="s">
         <v>32</v>
       </c>
@@ -13274,10 +13324,10 @@
       <c r="F23" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="G23" s="136"/>
+      <c r="G23" s="133"/>
     </row>
     <row r="24" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="134"/>
+      <c r="C24" s="131"/>
       <c r="D24" s="54" t="s">
         <v>33</v>
       </c>
@@ -13287,10 +13337,10 @@
       <c r="F24" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="G24" s="136"/>
+      <c r="G24" s="133"/>
     </row>
     <row r="25" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="134"/>
+      <c r="C25" s="131"/>
       <c r="D25" s="54" t="s">
         <v>34</v>
       </c>
@@ -13300,10 +13350,10 @@
       <c r="F25" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="G25" s="136"/>
+      <c r="G25" s="133"/>
     </row>
     <row r="26" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="134"/>
+      <c r="C26" s="131"/>
       <c r="D26" s="54" t="s">
         <v>35</v>
       </c>
@@ -13313,10 +13363,10 @@
       <c r="F26" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="G26" s="136"/>
+      <c r="G26" s="133"/>
     </row>
     <row r="27" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="134"/>
+      <c r="C27" s="131"/>
       <c r="D27" s="54" t="s">
         <v>36</v>
       </c>
@@ -13326,10 +13376,10 @@
       <c r="F27" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="G27" s="136"/>
+      <c r="G27" s="133"/>
     </row>
     <row r="28" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="134"/>
+      <c r="C28" s="131"/>
       <c r="D28" s="54" t="s">
         <v>37</v>
       </c>
@@ -13339,10 +13389,10 @@
       <c r="F28" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="136"/>
+      <c r="G28" s="133"/>
     </row>
     <row r="29" spans="3:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="135"/>
+      <c r="C29" s="132"/>
       <c r="D29" s="59" t="s">
         <v>38</v>
       </c>
@@ -13352,7 +13402,7 @@
       <c r="F29" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="G29" s="137"/>
+      <c r="G29" s="134"/>
     </row>
     <row r="30" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/ExcelTables/Matrices para MML.xlsx
+++ b/ExcelTables/Matrices para MML.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corra\OneDrive\Documentos\GitHub\AnalisisdeAlternativas\ExcelTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C993FDC-C9A2-4DAD-83B6-DCCD21B635D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754A6D52-054B-483F-ACF4-C0CAFDDB1279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="145">
   <si>
     <t>NIVEL</t>
   </si>
@@ -549,6 +549,9 @@
   </si>
   <si>
     <t>Jefe de Área</t>
+  </si>
+  <si>
+    <t>Las entidades de tránsito entregan las APIs para garantizan la compatibilidad y operabilidad con los sistemas desarrollados.</t>
   </si>
 </sst>
 </file>
@@ -1792,6 +1795,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1803,15 +1815,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10014,27 +10017,27 @@
     <row r="2" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="107" t="s">
+      <c r="D4" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="107" t="s">
+      <c r="E4" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="107" t="s">
+      <c r="F4" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
     </row>
     <row r="5" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
       <c r="F5" s="64" t="s">
         <v>40</v>
       </c>
@@ -10052,10 +10055,10 @@
       </c>
     </row>
     <row r="6" spans="3:10" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="109" t="s">
+      <c r="D6" s="105" t="s">
         <v>96</v>
       </c>
       <c r="E6" s="65"/>
@@ -10066,8 +10069,8 @@
       <c r="J6" s="65"/>
     </row>
     <row r="7" spans="3:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="108"/>
-      <c r="D7" s="109"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="105"/>
       <c r="E7" s="65"/>
       <c r="F7" s="65"/>
       <c r="G7" s="65"/>
@@ -10076,8 +10079,8 @@
       <c r="J7" s="65"/>
     </row>
     <row r="8" spans="3:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="108"/>
-      <c r="D8" s="109"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="105"/>
       <c r="E8" s="65"/>
       <c r="F8" s="66"/>
       <c r="G8" s="65"/>
@@ -10152,139 +10155,139 @@
       </c>
     </row>
     <row r="12" spans="3:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="105" t="s">
+      <c r="C12" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="103" t="s">
+      <c r="D12" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="106" t="s">
+      <c r="E12" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="103" t="s">
+      <c r="F12" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="103" t="s">
+      <c r="G12" s="106" t="s">
         <v>104</v>
       </c>
-      <c r="H12" s="103" t="s">
+      <c r="H12" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="I12" s="103" t="s">
+      <c r="I12" s="106" t="s">
         <v>101</v>
       </c>
-      <c r="J12" s="103" t="s">
+      <c r="J12" s="106" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="13" spans="3:10" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="105"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
     </row>
     <row r="14" spans="3:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="105"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="106"/>
     </row>
     <row r="15" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="105"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="103" t="s">
+      <c r="C15" s="108"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="103" t="s">
+      <c r="G15" s="106" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="103" t="s">
+      <c r="H15" s="106" t="s">
         <v>140</v>
       </c>
-      <c r="I15" s="103" t="s">
+      <c r="I15" s="106" t="s">
         <v>101</v>
       </c>
-      <c r="J15" s="103" t="s">
+      <c r="J15" s="106" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="16" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="105"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="106" t="s">
+      <c r="C16" s="108"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="103"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
     </row>
     <row r="17" spans="3:10" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="105"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="103"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="106"/>
     </row>
     <row r="18" spans="3:10" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="105"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="103" t="s">
+      <c r="C18" s="108"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="106" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="103" t="s">
+      <c r="G18" s="106" t="s">
         <v>108</v>
       </c>
-      <c r="H18" s="103" t="s">
+      <c r="H18" s="106" t="s">
         <v>142</v>
       </c>
-      <c r="I18" s="103" t="s">
+      <c r="I18" s="106" t="s">
         <v>109</v>
       </c>
-      <c r="J18" s="103" t="s">
+      <c r="J18" s="106" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="19" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="105"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="106" t="s">
+      <c r="C19" s="108"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="106"/>
     </row>
     <row r="20" spans="3:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="105"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="103"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="106"/>
     </row>
     <row r="21" spans="3:10" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="105"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="106"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="109"/>
       <c r="F21" s="29" t="s">
         <v>82</v>
       </c>
@@ -10302,7 +10305,7 @@
       </c>
     </row>
     <row r="22" spans="3:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="104" t="s">
+      <c r="C22" s="107" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="71" t="s">
@@ -10328,7 +10331,7 @@
       </c>
     </row>
     <row r="23" spans="3:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="104"/>
+      <c r="C23" s="107"/>
       <c r="D23" s="71" t="s">
         <v>25</v>
       </c>
@@ -10352,7 +10355,7 @@
       </c>
     </row>
     <row r="24" spans="3:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="104"/>
+      <c r="C24" s="107"/>
       <c r="D24" s="29" t="s">
         <v>26</v>
       </c>
@@ -10376,7 +10379,7 @@
       </c>
     </row>
     <row r="25" spans="3:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="104"/>
+      <c r="C25" s="107"/>
       <c r="D25" s="29" t="s">
         <v>27</v>
       </c>
@@ -10400,7 +10403,7 @@
       </c>
     </row>
     <row r="26" spans="3:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="104"/>
+      <c r="C26" s="107"/>
       <c r="D26" s="29" t="s">
         <v>28</v>
       </c>
@@ -10424,7 +10427,7 @@
       </c>
     </row>
     <row r="27" spans="3:10" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="104"/>
+      <c r="C27" s="107"/>
       <c r="D27" s="29" t="s">
         <v>29</v>
       </c>
@@ -10448,7 +10451,7 @@
       </c>
     </row>
     <row r="28" spans="3:10" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="104"/>
+      <c r="C28" s="107"/>
       <c r="D28" s="29" t="s">
         <v>30</v>
       </c>
@@ -10472,7 +10475,7 @@
       </c>
     </row>
     <row r="29" spans="3:10" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="104"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="29" t="s">
         <v>31</v>
       </c>
@@ -10496,7 +10499,7 @@
       </c>
     </row>
     <row r="30" spans="3:10" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="104"/>
+      <c r="C30" s="107"/>
       <c r="D30" s="62" t="s">
         <v>32</v>
       </c>
@@ -10520,7 +10523,7 @@
       </c>
     </row>
     <row r="31" spans="3:10" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="104"/>
+      <c r="C31" s="107"/>
       <c r="D31" s="62" t="s">
         <v>33</v>
       </c>
@@ -10544,7 +10547,7 @@
       </c>
     </row>
     <row r="32" spans="3:10" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="104"/>
+      <c r="C32" s="107"/>
       <c r="D32" s="62" t="s">
         <v>34</v>
       </c>
@@ -10568,7 +10571,7 @@
       </c>
     </row>
     <row r="33" spans="3:10" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="104"/>
+      <c r="C33" s="107"/>
       <c r="D33" s="62" t="s">
         <v>35</v>
       </c>
@@ -10592,7 +10595,7 @@
       </c>
     </row>
     <row r="34" spans="3:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="104"/>
+      <c r="C34" s="107"/>
       <c r="D34" s="62" t="s">
         <v>36</v>
       </c>
@@ -10616,7 +10619,7 @@
       </c>
     </row>
     <row r="35" spans="3:10" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="104"/>
+      <c r="C35" s="107"/>
       <c r="D35" s="62" t="s">
         <v>37</v>
       </c>
@@ -10640,7 +10643,7 @@
       </c>
     </row>
     <row r="36" spans="3:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="104"/>
+      <c r="C36" s="107"/>
       <c r="D36" s="62" t="s">
         <v>38</v>
       </c>
@@ -11629,12 +11632,17 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="C22:C36"/>
+    <mergeCell ref="D12:D21"/>
+    <mergeCell ref="C12:C21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="E12:E15"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="H15:H17"/>
     <mergeCell ref="I15:I17"/>
@@ -11644,18 +11652,13 @@
     <mergeCell ref="H18:H20"/>
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="J18:J20"/>
-    <mergeCell ref="C22:C36"/>
-    <mergeCell ref="D12:D21"/>
-    <mergeCell ref="C12:C21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:J14"/>
     <mergeCell ref="F15:F17"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F10" r:id="rId1" xr:uid="{7D9AB7E4-77FF-425E-B61B-10D8026EE552}"/>
@@ -11671,8 +11674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D1:N1000"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="E5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11786,7 +11789,7 @@
         <v>65</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="H7" s="84" t="s">
         <v>54</v>
@@ -13068,7 +13071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D11" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -13187,7 +13190,7 @@
         <v>79</v>
       </c>
       <c r="G13" s="49" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="3:7" ht="112.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
